--- a/error_counts/biodivner/Meta-Llama-3.1-70B-Instruct/random_3_parsed_output/tokens_perfect.xlsx
+++ b/error_counts/biodivner/Meta-Llama-3.1-70B-Instruct/random_3_parsed_output/tokens_perfect.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D218"/>
+  <dimension ref="A1:D219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1268,61 +1268,61 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>country</t>
+          <t>area</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>abundance</t>
+          <t>country</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>herbivore</t>
+          <t>abundance</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>leaf fungi</t>
+          <t>herbivore</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1331,7 +1331,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
@@ -1340,66 +1340,66 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Abundance</t>
+          <t>leaf fungi</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>communities</t>
+          <t>Abundance</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Zhejiang Province</t>
+          <t>communities</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>total height</t>
+          <t>Zhejiang Province</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1412,7 +1412,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>stem diameter</t>
+          <t>total height</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1430,7 +1430,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>stem inclination</t>
+          <t>stem diameter</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1439,16 +1439,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>stem azimuth</t>
+          <t>stem inclination</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1457,16 +1457,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>species richness</t>
+          <t>stem azimuth</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>phylogenetic diversity</t>
+          <t>species richness</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1493,34 +1493,34 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>lepidopteran larvae</t>
+          <t>phylogenetic diversity</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>taxon</t>
+          <t>lepidopteran larvae</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1529,52 +1529,52 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>climate</t>
+          <t>taxon</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>organism</t>
+          <t>climate</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>seedling</t>
+          <t>organism</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1583,34 +1583,34 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>damaged</t>
+          <t>seedling</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>dead</t>
+          <t>damaged</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1622,13 +1622,13 @@
         <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>dead</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>5</v>
@@ -1646,25 +1646,25 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>normal growth</t>
+          <t>Height</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>development</t>
+          <t>normal growth</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1682,7 +1682,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>reproduction</t>
+          <t>development</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1700,7 +1700,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>growth</t>
+          <t>reproduction</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1709,39 +1709,39 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>herb layer</t>
+          <t>growth</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>regeneration</t>
+          <t>herb layer</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1754,48 +1754,48 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>regeneration</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Soil depth</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>soil horizon</t>
+          <t>Soil depth</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1808,43 +1808,43 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>tree species</t>
+          <t>soil horizon</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>xylem hydraulic conductivity</t>
+          <t>tree species</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>basal area</t>
+          <t>xylem hydraulic conductivity</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1853,16 +1853,16 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>leaf toughness</t>
+          <t>basal area</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1871,16 +1871,16 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>tannin concentrations</t>
+          <t>leaf toughness</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1892,22 +1892,22 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>bacteria</t>
+          <t>tannin concentrations</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
         <v>2</v>
@@ -1916,7 +1916,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>fungi</t>
+          <t>bacteria</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1925,39 +1925,39 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>sediment</t>
+          <t>fungi</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>soil properties</t>
+          <t>sediment</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -1970,30 +1970,30 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>flowers</t>
+          <t>soil properties</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C86" t="n">
         <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>base diameter</t>
+          <t>flowers</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2006,7 +2006,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>top diameter</t>
+          <t>base diameter</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2024,7 +2024,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>length</t>
+          <t>top diameter</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2033,39 +2033,39 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>fungal</t>
+          <t>length</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>operational taxonomic unit</t>
+          <t>fungal</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -2078,43 +2078,43 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Taxon</t>
+          <t>operational taxonomic unit</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C92" t="n">
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>peak rainfall intensity</t>
+          <t>Taxon</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>average rainfall intensity</t>
+          <t>peak rainfall intensity</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2123,52 +2123,52 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Precipitation</t>
+          <t>average rainfall intensity</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C95" t="n">
         <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>rice</t>
+          <t>Precipitation</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C96" t="n">
         <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>vegetables</t>
+          <t>rice</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2186,7 +2186,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>lipids</t>
+          <t>vegetables</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2204,61 +2204,61 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Bacteria</t>
+          <t>lipids</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>open water</t>
+          <t>Bacteria</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Iridomyrmex anceps</t>
+          <t>open water</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Arthropod species</t>
+          <t>Iridomyrmex anceps</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2270,13 +2270,13 @@
         <v>2</v>
       </c>
       <c r="D102" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>morphospecies</t>
+          <t>Arthropod species</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2294,34 +2294,34 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>antimicrobial proteins</t>
+          <t>morphospecies</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>honey bee</t>
+          <t>antimicrobial proteins</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
@@ -2330,16 +2330,16 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>honey bee</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106" t="n">
         <v>1</v>
@@ -2348,7 +2348,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2357,16 +2357,16 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2375,25 +2375,25 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>bryophytes</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D109" t="n">
         <v>1</v>
@@ -2402,30 +2402,30 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>bryophytes</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>vegetation</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -2438,7 +2438,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>wetland</t>
+          <t>vegetation</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2450,36 +2450,36 @@
         <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>fragmentation</t>
+          <t>wetland</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C113" t="n">
         <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>aquarium</t>
+          <t>fragmentation</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -2492,7 +2492,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>coral reef</t>
+          <t>aquarium</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2504,18 +2504,18 @@
         <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>basal diameter</t>
+          <t>coral reef</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -2528,12 +2528,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Freiburg im Breisgau</t>
+          <t>basal diameter</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -2546,7 +2546,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Freiburg im Breisgau</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D118" t="n">
         <v>1</v>
@@ -2564,16 +2564,16 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>marine benthic habitat</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D119" t="n">
         <v>1</v>
@@ -2582,25 +2582,25 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>microbiota</t>
+          <t>marine benthic habitat</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>arthropod taxa</t>
+          <t>microbiota</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2609,34 +2609,34 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D121" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>arthropod taxa</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>density</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2645,34 +2645,34 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>chemicals</t>
+          <t>density</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C124" t="n">
         <v>2</v>
       </c>
       <c r="D124" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>phenolic</t>
+          <t>chemicals</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -2681,34 +2681,34 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>conservation</t>
+          <t>phenolic</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C126" t="n">
         <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>degradation</t>
+          <t>conservation</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2720,18 +2720,18 @@
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Mediterranean Sea</t>
+          <t>degradation</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -2744,25 +2744,25 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Nitrogen</t>
+          <t>Mediterranean Sea</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C129" t="n">
         <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Carbon</t>
+          <t>Nitrogen</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2774,67 +2774,67 @@
         <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Carbon Nitrogen ratio</t>
+          <t>Carbon</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C131" t="n">
         <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Chemical elements</t>
+          <t>Carbon Nitrogen ratio</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C132" t="n">
         <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>84</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Leaf stomata density</t>
+          <t>Chemical elements</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C133" t="n">
         <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>4</v>
+        <v>84</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Leaf stomata size</t>
+          <t>Leaf stomata density</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2846,36 +2846,36 @@
         <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Secondary Metabolites</t>
+          <t>Leaf stomata size</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C135" t="n">
         <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>deforestation</t>
+          <t>Secondary Metabolites</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -2888,12 +2888,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Alboran Sea</t>
+          <t>deforestation</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -2906,7 +2906,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Aegean Sea</t>
+          <t>Alboran Sea</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2924,12 +2924,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>tree seedlings</t>
+          <t>Aegean Sea</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -2942,12 +2942,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>conspecific communities</t>
+          <t>tree seedlings</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -2960,25 +2960,25 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Ants</t>
+          <t>conspecific communities</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Formicidae</t>
+          <t>Ants</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2987,21 +2987,21 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>habitats</t>
+          <t>Formicidae</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -3014,12 +3014,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>habitats</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -3032,25 +3032,25 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>land</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>natural habitats</t>
+          <t>land</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3059,88 +3059,88 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>deadwood</t>
+          <t>natural habitats</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>deadwood</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D148" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>wood</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>weather</t>
+          <t>wood</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C150" t="n">
         <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>decomposition</t>
+          <t>weather</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3149,25 +3149,25 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>diameter</t>
+          <t>decomposition</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D152" t="n">
         <v>1</v>
@@ -3176,7 +3176,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>diameter</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3194,7 +3194,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>size</t>
+          <t>volume</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3206,13 +3206,13 @@
         <v>1</v>
       </c>
       <c r="D154" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>height</t>
+          <t>size</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3221,43 +3221,43 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D155" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>animal species</t>
+          <t>height</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Leipzig</t>
+          <t>animal species</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D157" t="n">
         <v>1</v>
@@ -3266,7 +3266,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Tennenbacher Str</t>
+          <t>Leipzig</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D158" t="n">
         <v>1</v>
@@ -3284,12 +3284,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>shannon index</t>
+          <t>Tennenbacher Str</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -3302,7 +3302,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>diversity indices</t>
+          <t>shannon index</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3314,31 +3314,31 @@
         <v>1</v>
       </c>
       <c r="D160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>soil horizons</t>
+          <t>diversity indices</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C161" t="n">
         <v>1</v>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ground</t>
+          <t>soil horizons</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -3347,16 +3347,16 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>coral reefs</t>
+          <t>ground</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -3365,16 +3365,16 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D163" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Soil horizon</t>
+          <t>coral reefs</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -3386,31 +3386,31 @@
         <v>1</v>
       </c>
       <c r="D164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Camponotus vitiosus</t>
+          <t>Soil horizon</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Pristomyrmex punctatus</t>
+          <t>Camponotus vitiosus</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -3428,7 +3428,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Crematogaster</t>
+          <t>Pristomyrmex punctatus</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -3437,7 +3437,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D167" t="n">
         <v>3</v>
@@ -3446,7 +3446,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>pathogen</t>
+          <t>Crematogaster</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -3458,18 +3458,18 @@
         <v>1</v>
       </c>
       <c r="D168" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>soil samples</t>
+          <t>pathogen</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -3482,43 +3482,43 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>environment</t>
+          <t>soil samples</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C170" t="n">
         <v>1</v>
       </c>
       <c r="D170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>deposition</t>
+          <t>environment</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C171" t="n">
         <v>1</v>
       </c>
       <c r="D171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>rainfalls</t>
+          <t>deposition</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -3536,12 +3536,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Fungi</t>
+          <t>rainfalls</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -3554,7 +3554,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ants</t>
+          <t>Fungi</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -3563,7 +3563,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D174" t="n">
         <v>1</v>
@@ -3572,12 +3572,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>clay</t>
+          <t>ants</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -3590,66 +3590,66 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Grain size distribution</t>
+          <t>clay</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C176" t="n">
         <v>2</v>
       </c>
       <c r="D176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>soils</t>
+          <t>Grain size distribution</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C177" t="n">
         <v>2</v>
       </c>
       <c r="D177" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>traits</t>
+          <t>soils</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D178" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>honey bees</t>
+          <t>traits</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -3662,12 +3662,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>environmental change</t>
+          <t>honey bees</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -3680,12 +3680,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>riparian reserves</t>
+          <t>environmental change</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -3698,12 +3698,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>planting density</t>
+          <t>riparian reserves</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -3716,12 +3716,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>canopy layer</t>
+          <t>planting density</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -3734,12 +3734,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>throughfall</t>
+          <t>canopy layer</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -3752,7 +3752,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>spring</t>
+          <t>throughfall</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -3770,7 +3770,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>summer</t>
+          <t>spring</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -3788,25 +3788,25 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Basal area</t>
+          <t>summer</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D187" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>competition index</t>
+          <t>Basal area</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -3815,34 +3815,34 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D188" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Cunninghamia lanceolata</t>
+          <t>competition index</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Pinus massoniana</t>
+          <t>Cunninghamia lanceolata</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -3860,30 +3860,30 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Leaf traits</t>
+          <t>Pinus massoniana</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C191" t="n">
         <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>specimen</t>
+          <t>Leaf traits</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -3896,7 +3896,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>plant species</t>
+          <t>specimen</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -3914,30 +3914,30 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>species composition</t>
+          <t>plant species</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C194" t="n">
         <v>1</v>
       </c>
       <c r="D194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>voucher specimens</t>
+          <t>species composition</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -3950,12 +3950,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Climate Change</t>
+          <t>voucher specimens</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -3968,25 +3968,25 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>functional diversity</t>
+          <t>Climate Change</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C197" t="n">
         <v>1</v>
       </c>
       <c r="D197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>soil depth</t>
+          <t>functional diversity</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -4004,25 +4004,25 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Animal</t>
+          <t>soil depth</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Species</t>
+          <t>Animal</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -4034,13 +4034,13 @@
         <v>2</v>
       </c>
       <c r="D200" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>fish</t>
+          <t>Species</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4049,16 +4049,16 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D201" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>microbes</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -4076,48 +4076,48 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>kinetic energy</t>
+          <t>microbes</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C203" t="n">
         <v>1</v>
       </c>
       <c r="D203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>drought</t>
+          <t>kinetic energy</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C204" t="n">
         <v>1</v>
       </c>
       <c r="D204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>successional age</t>
+          <t>drought</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -4130,7 +4130,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>diversity gradient</t>
+          <t>successional age</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -4148,7 +4148,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>diversity gradient</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -4166,52 +4166,52 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>animal</t>
+          <t>age</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Tree species richness</t>
+          <t>animal</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C209" t="n">
         <v>2</v>
       </c>
       <c r="D209" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Tree</t>
+          <t>Tree species richness</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D210" t="n">
         <v>4</v>
@@ -4220,30 +4220,30 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>CO2</t>
+          <t>Tree</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C211" t="n">
         <v>1</v>
       </c>
       <c r="D211" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>soil environment</t>
+          <t>CO2</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -4256,12 +4256,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ph</t>
+          <t>soil environment</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -4274,12 +4274,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>mutualism</t>
+          <t>ph</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -4292,7 +4292,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>predation</t>
+          <t>mutualism</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -4310,12 +4310,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>bathyal habitat</t>
+          <t>predation</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -4328,36 +4328,54 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>biomass</t>
+          <t>bathyal habitat</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C217" t="n">
         <v>1</v>
       </c>
       <c r="D217" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
+          <t>biomass</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>1</v>
+      </c>
+      <c r="D218" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
           <t>earthworms</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>ORGANISM</t>
-        </is>
-      </c>
-      <c r="C218" t="n">
-        <v>1</v>
-      </c>
-      <c r="D218" t="n">
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>ORGANISM</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>1</v>
+      </c>
+      <c r="D219" t="n">
         <v>2</v>
       </c>
     </row>
